--- a/Wiki/assets/documentos/Plantilla Redmine.xlsx
+++ b/Wiki/assets/documentos/Plantilla Redmine.xlsx
@@ -8,20 +8,57 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvargas\Documents\GitHub\Wiki-Infra\Wiki\assets\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0A61A91-CB52-4678-846F-D894295351AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B0A7700-79EA-44E1-8B68-C7CDB9949771}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{70484162-F8A7-4F27-9729-37BDC8E11735}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{0DDF8AC2-B5E7-478A-8D3F-9B000FB5EF51}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>issue_id</t>
+  </si>
+  <si>
+    <t>spent_on</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Help Desk</t>
+  </si>
+  <si>
+    <t>Soporte portatil</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35,15 +72,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +94,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,13 +442,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29678D7-65D0-4649-87D4-CFE66AF0ECD8}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7686EE31-FDAF-4CC1-9B55-9362AFFD1021}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12273</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45378</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>